--- a/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220318.xlsx
+++ b/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220318.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="指引说明" sheetId="1" r:id="rId1"/>
@@ -1868,9 +1868,6 @@
     <t>总部经济</t>
   </si>
   <si>
-    <t>180条</t>
-  </si>
-  <si>
     <t>集成电路</t>
   </si>
   <si>
@@ -3536,6 +3533,10 @@
   </si>
   <si>
     <t>西安法士特汽车传动有限公司</t>
+  </si>
+  <si>
+    <t>165条</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5199,19 +5200,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>785</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="36" t="s">
         <v>786</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>787</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>788</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>789</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>310</v>
@@ -5228,16 +5229,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>790</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>791</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>318</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>310</v>
@@ -5257,16 +5258,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>318</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>310</v>
@@ -5286,10 +5287,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>795</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>796</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>321</v>
@@ -5315,13 +5316,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="36" t="s">
         <v>798</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>799</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>350</v>
@@ -5402,10 +5403,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>800</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>801</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>329</v>
@@ -5460,13 +5461,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="C13" s="36" t="s">
         <v>803</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>804</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>308</v>
@@ -5518,16 +5519,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>805</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="C15" s="36" t="s">
+        <v>803</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>806</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>804</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>807</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>310</v>
@@ -5547,7 +5548,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>349</v>
@@ -5634,10 +5635,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
+        <v>808</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>809</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>810</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>339</v>
@@ -5663,10 +5664,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>339</v>
@@ -5692,10 +5693,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>339</v>
@@ -5779,13 +5780,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>813</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="C24" s="36" t="s">
         <v>814</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>815</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>335</v>
@@ -5837,19 +5838,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="118" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B26" s="118" t="s">
         <v>404</v>
       </c>
       <c r="C26" s="118" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D26" s="116" t="s">
         <v>350</v>
       </c>
       <c r="E26" s="118" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F26" s="119">
         <v>707.92</v>
@@ -5866,16 +5867,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="118" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B27" s="118" t="s">
         <v>349</v>
       </c>
       <c r="C27" s="118" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D27" s="120" t="s">
         <v>1013</v>
-      </c>
-      <c r="D27" s="120" t="s">
-        <v>1014</v>
       </c>
       <c r="E27" s="118" t="s">
         <v>310</v>
@@ -5895,13 +5896,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="118" t="s">
+        <v>868</v>
+      </c>
+      <c r="B28" s="118" t="s">
         <v>869</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="C28" s="118" t="s">
         <v>870</v>
-      </c>
-      <c r="C28" s="118" t="s">
-        <v>871</v>
       </c>
       <c r="D28" s="120" t="s">
         <v>350</v>
@@ -5924,19 +5925,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="118" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B29" s="118" t="s">
         <v>1015</v>
       </c>
-      <c r="B29" s="118" t="s">
+      <c r="C29" s="118" t="s">
         <v>1016</v>
-      </c>
-      <c r="C29" s="118" t="s">
-        <v>1017</v>
       </c>
       <c r="D29" s="120" t="s">
         <v>322</v>
       </c>
       <c r="E29" s="118" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F29" s="119" t="s">
         <v>310</v>
@@ -5953,19 +5954,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="118" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B30" s="118" t="s">
         <v>1019</v>
       </c>
-      <c r="B30" s="118" t="s">
+      <c r="C30" s="118" t="s">
         <v>1020</v>
-      </c>
-      <c r="C30" s="118" t="s">
-        <v>1021</v>
       </c>
       <c r="D30" s="116" t="s">
         <v>314</v>
       </c>
       <c r="E30" s="118" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F30" s="119" t="s">
         <v>310</v>
@@ -5982,19 +5983,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="118" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B31" s="118" t="s">
         <v>1023</v>
       </c>
-      <c r="B31" s="118" t="s">
-        <v>1024</v>
-      </c>
       <c r="C31" s="118" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D31" s="120" t="s">
         <v>320</v>
       </c>
       <c r="E31" s="118" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F31" s="119">
         <v>495</v>
@@ -6011,19 +6012,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="118" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B32" s="118" t="s">
         <v>1026</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="C32" s="118" t="s">
         <v>1027</v>
-      </c>
-      <c r="C32" s="118" t="s">
-        <v>1028</v>
       </c>
       <c r="D32" s="116" t="s">
         <v>320</v>
       </c>
       <c r="E32" s="118" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F32" s="119" t="s">
         <v>310</v>
@@ -6040,13 +6041,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="118" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B33" s="118" t="s">
         <v>1030</v>
       </c>
-      <c r="B33" s="118" t="s">
-        <v>1031</v>
-      </c>
       <c r="C33" s="118" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D33" s="116" t="s">
         <v>336</v>
@@ -6069,16 +6070,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="36" t="s">
+        <v>819</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>820</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="C34" s="36" t="s">
         <v>821</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>822</v>
-      </c>
       <c r="D34" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>310</v>
@@ -6098,13 +6099,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="B35" s="36" t="s">
         <v>823</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="C35" s="36" t="s">
         <v>824</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>825</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>322</v>
@@ -6127,13 +6128,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="36" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B36" s="36" t="s">
+        <v>823</v>
+      </c>
+      <c r="C36" s="36" t="s">
         <v>824</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>825</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>322</v>
@@ -6156,13 +6157,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="36" t="s">
+        <v>826</v>
+      </c>
+      <c r="B37" s="36" t="s">
         <v>827</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="C37" s="36" t="s">
         <v>828</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>829</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>336</v>
@@ -6185,19 +6186,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="C38" s="36" t="s">
         <v>831</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>832</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>320</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F38" s="36">
         <v>76.23</v>
@@ -6214,13 +6215,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
+        <v>833</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="C39" s="36" t="s">
         <v>835</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>836</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>335</v>
@@ -6243,13 +6244,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
+        <v>836</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>818</v>
+      </c>
+      <c r="C40" s="36" t="s">
         <v>837</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>819</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>838</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>320</v>
@@ -6272,19 +6273,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
+        <v>838</v>
+      </c>
+      <c r="B41" s="36" t="s">
         <v>839</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="C41" s="36" t="s">
         <v>840</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>841</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>314</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F41" s="38" t="s">
         <v>310</v>
@@ -6310,7 +6311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -6337,7 +6338,7 @@
         <v>292</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -6586,19 +6587,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
+        <v>842</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>843</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C5" s="36" t="s">
         <v>844</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>845</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>320</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>310</v>
@@ -6615,19 +6616,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
+        <v>846</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>830</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>847</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>831</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>848</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>320</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>310</v>
@@ -6673,10 +6674,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>800</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>801</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>329</v>
@@ -6760,19 +6761,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
+        <v>849</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="C11" s="41" t="s">
         <v>851</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>852</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>322</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F11" s="38">
         <v>3000</v>
@@ -6793,7 +6794,7 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="41" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>322</v>
@@ -6816,7 +6817,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>376</v>
@@ -6828,7 +6829,7 @@
         <v>322</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>310</v>
@@ -6874,13 +6875,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>376</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>322</v>
@@ -6990,13 +6991,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
+        <v>858</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>859</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="C19" s="41" t="s">
         <v>860</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>861</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>314</v>
@@ -7135,19 +7136,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
+        <v>861</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>862</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="C24" s="41" t="s">
         <v>863</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>864</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>314</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>310</v>
@@ -7222,19 +7223,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>404</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>350</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F27" s="38">
         <v>707.92</v>
@@ -7251,13 +7252,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
+        <v>868</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>869</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="36" t="s">
         <v>870</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>871</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>350</v>
@@ -7309,13 +7310,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="36" t="s">
+        <v>871</v>
+      </c>
+      <c r="B30" s="36" t="s">
         <v>872</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="C30" s="36" t="s">
         <v>873</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>874</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>350</v>
@@ -7338,19 +7339,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="36" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>404</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>350</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>310</v>
@@ -7367,19 +7368,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="36" t="s">
+        <v>877</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>878</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="C32" s="41" t="s">
         <v>879</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>880</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>350</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>310</v>
@@ -7396,13 +7397,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>798</v>
-      </c>
       <c r="C33" s="41" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>350</v>
@@ -7425,13 +7426,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>813</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="C34" s="41" t="s">
         <v>814</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>815</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>335</v>
@@ -7599,13 +7600,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>882</v>
+      </c>
+      <c r="B40" t="s">
         <v>883</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>884</v>
-      </c>
-      <c r="C40" t="s">
-        <v>885</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>335</v>
@@ -7628,13 +7629,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>816</v>
+      </c>
+      <c r="B41" t="s">
         <v>817</v>
       </c>
-      <c r="B41" t="s">
-        <v>818</v>
-      </c>
       <c r="C41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>335</v>
@@ -7712,7 +7713,7 @@
         <v>292</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -7766,10 +7767,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>885</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>886</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>887</v>
       </c>
       <c r="D4" s="43">
         <v>399</v>
@@ -7914,10 +7915,10 @@
         <v>1124.9931402857301</v>
       </c>
       <c r="J2" s="91" t="s">
+        <v>887</v>
+      </c>
+      <c r="K2" s="87" t="s">
         <v>888</v>
-      </c>
-      <c r="K2" s="87" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -7952,7 +7953,7 @@
         <v>446</v>
       </c>
       <c r="K3" s="87" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -8045,7 +8046,7 @@
         <v>44546</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H6" s="90">
         <v>13085</v>
@@ -8057,7 +8058,7 @@
         <v>461</v>
       </c>
       <c r="K6" s="87" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -8255,7 +8256,7 @@
         <v>44559</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H12" s="90">
         <v>17015</v>
@@ -8267,7 +8268,7 @@
         <v>459</v>
       </c>
       <c r="K12" s="87" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -8383,7 +8384,7 @@
         <v>232</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D16" s="88">
         <v>53600.5</v>
@@ -8395,7 +8396,7 @@
         <v>44546</v>
       </c>
       <c r="G16" s="87" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H16" s="90">
         <v>13242</v>
@@ -8407,7 +8408,7 @@
         <v>459</v>
       </c>
       <c r="K16" s="87" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -8733,7 +8734,7 @@
         <v>430</v>
       </c>
       <c r="C26" s="87" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D26" s="88">
         <v>204370.65</v>
@@ -8745,7 +8746,7 @@
         <v>44533</v>
       </c>
       <c r="G26" s="87" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H26" s="90">
         <v>23055</v>
@@ -8754,10 +8755,10 @@
         <v>1128.0974053759676</v>
       </c>
       <c r="J26" s="98" t="s">
+        <v>898</v>
+      </c>
+      <c r="K26" s="96" t="s">
         <v>899</v>
-      </c>
-      <c r="K26" s="96" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -8768,7 +8769,7 @@
         <v>430</v>
       </c>
       <c r="C27" s="87" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D27" s="88">
         <v>166988.34</v>
@@ -8780,7 +8781,7 @@
         <v>44533</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H27" s="90">
         <v>15926</v>
@@ -8789,10 +8790,10 @@
         <v>953.71928363381539</v>
       </c>
       <c r="J27" s="98" t="s">
+        <v>898</v>
+      </c>
+      <c r="K27" s="96" t="s">
         <v>899</v>
-      </c>
-      <c r="K27" s="96" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -8803,7 +8804,7 @@
         <v>430</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D28" s="93">
         <v>194641</v>
@@ -8815,7 +8816,7 @@
         <v>44205</v>
       </c>
       <c r="G28" s="92" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H28" s="94">
         <v>11776</v>
@@ -8827,7 +8828,7 @@
         <v>449</v>
       </c>
       <c r="K28" s="92" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -8838,7 +8839,7 @@
         <v>430</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D29" s="88">
         <v>188777</v>
@@ -8850,7 +8851,7 @@
         <v>44547</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H29" s="90">
         <v>9137</v>
@@ -8862,7 +8863,7 @@
         <v>453</v>
       </c>
       <c r="K29" s="87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -8873,7 +8874,7 @@
         <v>430</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D30" s="88">
         <v>175748</v>
@@ -8885,7 +8886,7 @@
         <v>44547</v>
       </c>
       <c r="G30" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H30" s="90">
         <v>8418</v>
@@ -8897,7 +8898,7 @@
         <v>481</v>
       </c>
       <c r="K30" s="87" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -8908,7 +8909,7 @@
         <v>430</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D31" s="88">
         <v>136770</v>
@@ -8920,7 +8921,7 @@
         <v>44519</v>
       </c>
       <c r="G31" s="87" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H31" s="90">
         <v>8206</v>
@@ -8932,7 +8933,7 @@
         <v>446</v>
       </c>
       <c r="K31" s="99" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -8943,7 +8944,7 @@
         <v>430</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D32" s="93">
         <v>198252</v>
@@ -8955,7 +8956,7 @@
         <v>44291</v>
       </c>
       <c r="G32" s="92" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H32" s="94">
         <v>7970</v>
@@ -8978,7 +8979,7 @@
         <v>430</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D33" s="88">
         <v>166848</v>
@@ -8990,7 +8991,7 @@
         <v>44547</v>
       </c>
       <c r="G33" s="87" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H33" s="90">
         <v>7859</v>
@@ -9002,7 +9003,7 @@
         <v>453</v>
       </c>
       <c r="K33" s="87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -9048,19 +9049,19 @@
         <v>501</v>
       </c>
       <c r="C35" s="100" t="s">
+        <v>910</v>
+      </c>
+      <c r="D35" s="100" t="s">
         <v>911</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="E35" s="100" t="s">
         <v>912</v>
-      </c>
-      <c r="E35" s="100" t="s">
-        <v>913</v>
       </c>
       <c r="F35" s="101">
         <v>44250</v>
       </c>
       <c r="G35" s="100" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H35" s="102">
         <v>40465</v>
@@ -9072,7 +9073,7 @@
         <v>459</v>
       </c>
       <c r="K35" s="100" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -9083,19 +9084,19 @@
         <v>501</v>
       </c>
       <c r="C36" s="100" t="s">
+        <v>915</v>
+      </c>
+      <c r="D36" s="100" t="s">
         <v>916</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="E36" s="100" t="s">
         <v>917</v>
-      </c>
-      <c r="E36" s="100" t="s">
-        <v>918</v>
       </c>
       <c r="F36" s="101">
         <v>44550</v>
       </c>
       <c r="G36" s="100" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H36" s="102">
         <v>26897</v>
@@ -9107,7 +9108,7 @@
         <v>459</v>
       </c>
       <c r="K36" s="100" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -9165,7 +9166,7 @@
         <v>44295</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H38" s="94">
         <v>19378</v>
@@ -9188,19 +9189,19 @@
         <v>501</v>
       </c>
       <c r="C39" s="100" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D39" s="100" t="s">
+        <v>920</v>
+      </c>
+      <c r="E39" s="100" t="s">
         <v>921</v>
-      </c>
-      <c r="E39" s="100" t="s">
-        <v>922</v>
       </c>
       <c r="F39" s="101">
         <v>44393</v>
       </c>
       <c r="G39" s="100" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H39" s="102">
         <v>17675</v>
@@ -9212,7 +9213,7 @@
         <v>497</v>
       </c>
       <c r="K39" s="100" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -9223,19 +9224,19 @@
         <v>501</v>
       </c>
       <c r="C40" s="100" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D40" s="100" t="s">
+        <v>924</v>
+      </c>
+      <c r="E40" s="100" t="s">
         <v>925</v>
-      </c>
-      <c r="E40" s="100" t="s">
-        <v>926</v>
       </c>
       <c r="F40" s="101">
         <v>44393</v>
       </c>
       <c r="G40" s="100" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H40" s="102">
         <v>17256</v>
@@ -9247,7 +9248,7 @@
         <v>443</v>
       </c>
       <c r="K40" s="100" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -9258,19 +9259,19 @@
         <v>501</v>
       </c>
       <c r="C41" s="100" t="s">
+        <v>928</v>
+      </c>
+      <c r="D41" s="100" t="s">
         <v>929</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="E41" s="100" t="s">
         <v>930</v>
-      </c>
-      <c r="E41" s="100" t="s">
-        <v>931</v>
       </c>
       <c r="F41" s="101">
         <v>44467</v>
       </c>
       <c r="G41" s="100" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H41" s="102">
         <v>15935</v>
@@ -9282,7 +9283,7 @@
         <v>461</v>
       </c>
       <c r="K41" s="100" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -9339,7 +9340,7 @@
         <v>292</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -9367,7 +9368,7 @@
         <v>246</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C3" s="43">
         <v>854</v>
@@ -9387,7 +9388,7 @@
         <v>271</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C4" s="43">
         <v>794</v>
@@ -9407,7 +9408,7 @@
         <v>244</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C5" s="43">
         <v>700</v>
@@ -9424,10 +9425,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C6" s="43">
         <v>607</v>
@@ -9526,7 +9527,7 @@
         <v>449</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -9561,7 +9562,7 @@
         <v>449</v>
       </c>
       <c r="K3" s="92" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -9806,7 +9807,7 @@
         <v>449</v>
       </c>
       <c r="K10" s="92" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -9838,10 +9839,10 @@
         <v>263.12890231419624</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K11" s="92" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -9873,10 +9874,10 @@
         <v>1097.0092988187987</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K12" s="92" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -9887,19 +9888,19 @@
         <v>233</v>
       </c>
       <c r="C13" s="125" t="s">
+        <v>936</v>
+      </c>
+      <c r="D13" s="125" t="s">
         <v>937</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="E13" s="125" t="s">
         <v>938</v>
-      </c>
-      <c r="E13" s="125" t="s">
-        <v>939</v>
       </c>
       <c r="F13" s="126">
         <v>44467</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H13" s="125">
         <v>13920</v>
@@ -9960,16 +9961,16 @@
         <v>502</v>
       </c>
       <c r="D15" s="125" t="s">
+        <v>940</v>
+      </c>
+      <c r="E15" s="125" t="s">
         <v>941</v>
-      </c>
-      <c r="E15" s="125" t="s">
-        <v>942</v>
       </c>
       <c r="F15" s="126">
         <v>44375</v>
       </c>
       <c r="G15" s="125" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H15" s="125">
         <v>11113</v>
@@ -9989,10 +9990,10 @@
         <v>549</v>
       </c>
       <c r="B16" s="92" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>1042</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>1043</v>
       </c>
       <c r="D16" s="92">
         <v>628932.77</v>
@@ -10004,7 +10005,7 @@
         <v>44270</v>
       </c>
       <c r="G16" s="92" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H16" s="94">
         <v>9434</v>
@@ -10024,22 +10025,22 @@
         <v>239</v>
       </c>
       <c r="B17" s="125" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C17" s="125" t="s">
         <v>1045</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="D17" s="125" t="s">
         <v>1046</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="E17" s="125" t="s">
         <v>1047</v>
-      </c>
-      <c r="E17" s="125" t="s">
-        <v>1048</v>
       </c>
       <c r="F17" s="126">
         <v>44415</v>
       </c>
       <c r="G17" s="125" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H17" s="125">
         <v>9384</v>
@@ -10059,10 +10060,10 @@
         <v>508</v>
       </c>
       <c r="B18" s="92" t="s">
+        <v>943</v>
+      </c>
+      <c r="C18" s="92" t="s">
         <v>944</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>945</v>
       </c>
       <c r="D18" s="92">
         <v>605499</v>
@@ -10074,7 +10075,7 @@
         <v>44282</v>
       </c>
       <c r="G18" s="92" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H18" s="94">
         <v>18165</v>
@@ -10091,13 +10092,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="92" t="s">
+        <v>946</v>
+      </c>
+      <c r="B19" s="92" t="s">
         <v>947</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="C19" s="92" t="s">
         <v>948</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>949</v>
       </c>
       <c r="D19" s="93">
         <v>350012</v>
@@ -10109,7 +10110,7 @@
         <v>44546</v>
       </c>
       <c r="G19" s="92" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H19" s="93">
         <v>13721</v>
@@ -10118,7 +10119,7 @@
         <v>392.01513090979739</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K19" s="92" t="s">
         <v>498</v>
@@ -10129,10 +10130,10 @@
         <v>236</v>
       </c>
       <c r="B20" s="92" t="s">
+        <v>950</v>
+      </c>
+      <c r="C20" s="92" t="s">
         <v>951</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>952</v>
       </c>
       <c r="D20" s="93">
         <v>334769</v>
@@ -10144,7 +10145,7 @@
         <v>44545</v>
       </c>
       <c r="G20" s="92" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H20" s="92">
         <v>11349</v>
@@ -10153,7 +10154,7 @@
         <v>339.00988442776958</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K20" s="92" t="s">
         <v>498</v>
@@ -10164,10 +10165,10 @@
         <v>238</v>
       </c>
       <c r="B21" s="92" t="s">
+        <v>953</v>
+      </c>
+      <c r="C21" s="92" t="s">
         <v>954</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>955</v>
       </c>
       <c r="D21" s="93">
         <v>69672.67</v>
@@ -10179,7 +10180,7 @@
         <v>44501</v>
       </c>
       <c r="G21" s="92" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H21" s="93">
         <v>10500</v>
@@ -10188,7 +10189,7 @@
         <v>1507.0471678493159</v>
       </c>
       <c r="J21" s="124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K21" s="92" t="s">
         <v>498</v>
@@ -10202,19 +10203,19 @@
         <v>233</v>
       </c>
       <c r="C22" s="125" t="s">
+        <v>956</v>
+      </c>
+      <c r="D22" s="125" t="s">
         <v>957</v>
       </c>
-      <c r="D22" s="125" t="s">
-        <v>958</v>
-      </c>
       <c r="E22" s="125" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F22" s="126">
         <v>44389</v>
       </c>
       <c r="G22" s="125" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H22" s="125">
         <v>10066</v>
@@ -10234,10 +10235,10 @@
         <v>238</v>
       </c>
       <c r="B23" s="92" t="s">
+        <v>953</v>
+      </c>
+      <c r="C23" s="92" t="s">
         <v>954</v>
-      </c>
-      <c r="C23" s="92" t="s">
-        <v>955</v>
       </c>
       <c r="D23" s="93">
         <v>54037.17</v>
@@ -10249,7 +10250,7 @@
         <v>44306</v>
       </c>
       <c r="G23" s="92" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H23" s="94">
         <v>8681</v>
@@ -10272,7 +10273,7 @@
         <v>550</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D24" s="93">
         <v>291961</v>
@@ -10284,7 +10285,7 @@
         <v>44342</v>
       </c>
       <c r="G24" s="92" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H24" s="94">
         <v>8350</v>
@@ -10304,10 +10305,10 @@
         <v>236</v>
       </c>
       <c r="B25" s="104" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C25" s="104" t="s">
         <v>1050</v>
-      </c>
-      <c r="C25" s="104" t="s">
-        <v>1051</v>
       </c>
       <c r="D25" s="104">
         <v>234438</v>
@@ -10319,7 +10320,7 @@
         <v>44436</v>
       </c>
       <c r="G25" s="104" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H25" s="106">
         <v>7315</v>
@@ -10339,10 +10340,10 @@
         <v>238</v>
       </c>
       <c r="B26" s="92" t="s">
+        <v>953</v>
+      </c>
+      <c r="C26" s="92" t="s">
         <v>954</v>
-      </c>
-      <c r="C26" s="92" t="s">
-        <v>955</v>
       </c>
       <c r="D26" s="93">
         <v>158457.76</v>
@@ -10354,7 +10355,7 @@
         <v>44253</v>
       </c>
       <c r="G26" s="92" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H26" s="94">
         <v>23782</v>
@@ -10366,7 +10367,7 @@
         <v>449</v>
       </c>
       <c r="K26" s="92" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -10374,10 +10375,10 @@
         <v>238</v>
       </c>
       <c r="B27" s="92" t="s">
+        <v>953</v>
+      </c>
+      <c r="C27" s="92" t="s">
         <v>954</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>955</v>
       </c>
       <c r="D27" s="93">
         <v>83388.75</v>
@@ -10389,7 +10390,7 @@
         <v>44515</v>
       </c>
       <c r="G27" s="92" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H27" s="93">
         <v>12509</v>
@@ -10399,10 +10400,10 @@
         <v>1500.0824451739593</v>
       </c>
       <c r="J27" s="124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K27" s="92" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -10410,10 +10411,10 @@
         <v>500</v>
       </c>
       <c r="B28" s="92" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D28" s="93">
         <v>168552.5</v>
@@ -10425,7 +10426,7 @@
         <v>44498</v>
       </c>
       <c r="G28" s="92" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H28" s="93">
         <v>11378</v>
@@ -10434,10 +10435,10 @@
         <v>675.04190089141366</v>
       </c>
       <c r="J28" s="124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K28" s="92" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -10445,10 +10446,10 @@
         <v>260</v>
       </c>
       <c r="B29" s="92" t="s">
+        <v>934</v>
+      </c>
+      <c r="C29" s="92" t="s">
         <v>935</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>936</v>
       </c>
       <c r="D29" s="93">
         <v>157035.94</v>
@@ -10460,7 +10461,7 @@
         <v>44328</v>
       </c>
       <c r="G29" s="92" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H29" s="94">
         <v>9893</v>
@@ -10472,7 +10473,7 @@
         <v>449</v>
       </c>
       <c r="K29" s="92" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -10483,19 +10484,19 @@
         <v>501</v>
       </c>
       <c r="C30" s="125" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D30" s="125" t="s">
         <v>1058</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="E30" s="125" t="s">
         <v>1059</v>
-      </c>
-      <c r="E30" s="125" t="s">
-        <v>1060</v>
       </c>
       <c r="F30" s="126">
         <v>44390</v>
       </c>
       <c r="G30" s="125" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H30" s="125">
         <v>8933</v>
@@ -10507,7 +10508,7 @@
         <v>449</v>
       </c>
       <c r="K30" s="125" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -10515,10 +10516,10 @@
         <v>294</v>
       </c>
       <c r="B31" s="104" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C31" s="104" t="s">
         <v>1062</v>
-      </c>
-      <c r="C31" s="104" t="s">
-        <v>1063</v>
       </c>
       <c r="D31" s="104">
         <v>176920</v>
@@ -10530,7 +10531,7 @@
         <v>44280</v>
       </c>
       <c r="G31" s="104" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H31" s="106">
         <v>8917</v>
@@ -10542,7 +10543,7 @@
         <v>449</v>
       </c>
       <c r="K31" s="104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -10550,10 +10551,10 @@
         <v>238</v>
       </c>
       <c r="B32" s="92" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C32" s="92" t="s">
         <v>1065</v>
-      </c>
-      <c r="C32" s="92" t="s">
-        <v>1066</v>
       </c>
       <c r="D32" s="93">
         <v>84838</v>
@@ -10565,7 +10566,7 @@
         <v>44218</v>
       </c>
       <c r="G32" s="92" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H32" s="94">
         <v>8863</v>
@@ -10577,7 +10578,7 @@
         <v>449</v>
       </c>
       <c r="K32" s="92" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -10585,22 +10586,22 @@
         <v>238</v>
       </c>
       <c r="B33" s="125" t="s">
+        <v>953</v>
+      </c>
+      <c r="C33" s="125" t="s">
         <v>954</v>
       </c>
-      <c r="C33" s="125" t="s">
-        <v>955</v>
-      </c>
       <c r="D33" s="125" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E33" s="125" t="s">
         <v>1067</v>
-      </c>
-      <c r="E33" s="125" t="s">
-        <v>1068</v>
       </c>
       <c r="F33" s="126">
         <v>44420</v>
       </c>
       <c r="G33" s="125" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H33" s="125">
         <v>8516</v>
@@ -10613,7 +10614,7 @@
         <v>449</v>
       </c>
       <c r="K33" s="125" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -10624,7 +10625,7 @@
         <v>234</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D34" s="93">
         <v>206098</v>
@@ -10636,7 +10637,7 @@
         <v>44529</v>
       </c>
       <c r="G34" s="92" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H34" s="93">
         <v>24279</v>
@@ -10645,10 +10646,10 @@
         <v>1178.0318101097537</v>
       </c>
       <c r="J34" s="124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K34" s="92" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -10656,10 +10657,10 @@
         <v>238</v>
       </c>
       <c r="B35" s="92" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C35" s="92" t="s">
         <v>1073</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>1074</v>
       </c>
       <c r="D35" s="93">
         <v>391338</v>
@@ -10671,7 +10672,7 @@
         <v>44484</v>
       </c>
       <c r="G35" s="92" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H35" s="93">
         <v>24200</v>
@@ -10680,21 +10681,21 @@
         <v>618.391262795844</v>
       </c>
       <c r="J35" s="124" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K35" s="92" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="92" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B36" s="92" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C36" s="92" t="s">
         <v>1076</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>1077</v>
       </c>
       <c r="D36" s="92">
         <v>593218.22</v>
@@ -10706,7 +10707,7 @@
         <v>44258</v>
       </c>
       <c r="G36" s="92" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H36" s="94">
         <v>21953</v>
@@ -10718,7 +10719,7 @@
         <v>449</v>
       </c>
       <c r="K36" s="92" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -10726,10 +10727,10 @@
         <v>294</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D37" s="104">
         <v>400000</v>
@@ -10741,7 +10742,7 @@
         <v>44404</v>
       </c>
       <c r="G37" s="104" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H37" s="106">
         <v>21280</v>
@@ -10753,7 +10754,7 @@
         <v>449</v>
       </c>
       <c r="K37" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -10761,22 +10762,22 @@
         <v>549</v>
       </c>
       <c r="B38" s="125" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C38" s="125" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D38" s="125" t="s">
         <v>1081</v>
       </c>
-      <c r="D38" s="125" t="s">
+      <c r="E38" s="125" t="s">
         <v>1082</v>
-      </c>
-      <c r="E38" s="125" t="s">
-        <v>1083</v>
       </c>
       <c r="F38" s="126">
         <v>44372</v>
       </c>
       <c r="G38" s="125" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H38" s="125">
         <v>21251</v>
@@ -10788,7 +10789,7 @@
         <v>449</v>
       </c>
       <c r="K38" s="125" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -10799,19 +10800,19 @@
         <v>501</v>
       </c>
       <c r="C39" s="125" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D39" s="125" t="s">
         <v>1085</v>
       </c>
-      <c r="D39" s="125" t="s">
+      <c r="E39" s="125" t="s">
         <v>1086</v>
-      </c>
-      <c r="E39" s="125" t="s">
-        <v>1087</v>
       </c>
       <c r="F39" s="126">
         <v>44375</v>
       </c>
       <c r="G39" s="125" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H39" s="125">
         <v>11871</v>
@@ -10824,7 +10825,7 @@
         <v>449</v>
       </c>
       <c r="K39" s="125" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -10835,7 +10836,7 @@
         <v>234</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D40" s="104">
         <v>77250</v>
@@ -10847,7 +10848,7 @@
         <v>44326</v>
       </c>
       <c r="G40" s="104" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H40" s="106">
         <v>10508</v>
@@ -10859,7 +10860,7 @@
         <v>449</v>
       </c>
       <c r="K40" s="104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -10870,7 +10871,7 @@
         <v>378</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D41" s="93">
         <v>184133.4</v>
@@ -10882,7 +10883,7 @@
         <v>44209</v>
       </c>
       <c r="G41" s="92" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H41" s="94">
         <v>9496</v>
@@ -10894,7 +10895,7 @@
         <v>449</v>
       </c>
       <c r="K41" s="92" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -10941,8 +10942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -10978,7 +10979,7 @@
         <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>556</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -10986,10 +10987,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="C4" t="s">
         <v>557</v>
-      </c>
-      <c r="C4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -10997,10 +10998,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="C5" t="s">
         <v>559</v>
-      </c>
-      <c r="C5" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -11008,10 +11009,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="C6" t="s">
         <v>561</v>
-      </c>
-      <c r="C6" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -11019,10 +11020,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="C7" t="s">
         <v>563</v>
-      </c>
-      <c r="C7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -11030,10 +11031,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" t="s">
         <v>565</v>
-      </c>
-      <c r="C8" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -11084,28 +11085,28 @@
         <v>551</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C1" s="110" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="110" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1" s="110" t="s">
         <v>568</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="F1" s="110" t="s">
         <v>569</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="G1" s="110" t="s">
         <v>570</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="H1" s="110" t="s">
         <v>571</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="I1" s="110" t="s">
         <v>572</v>
-      </c>
-      <c r="I1" s="110" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -11113,7 +11114,7 @@
         <v>553</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C2" s="111" t="s">
         <v>293</v>
@@ -11122,19 +11123,19 @@
         <v>506</v>
       </c>
       <c r="E2" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" s="111" t="s">
         <v>575</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="G2" s="111" t="s">
         <v>576</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="H2" s="112" t="s">
         <v>577</v>
       </c>
-      <c r="H2" s="112" t="s">
-        <v>578</v>
-      </c>
       <c r="I2" s="113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -11142,28 +11143,28 @@
         <v>553</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C3" s="111" t="s">
         <v>294</v>
       </c>
       <c r="D3" s="111" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F3" s="111" t="s">
         <v>581</v>
       </c>
-      <c r="E3" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F3" s="111" t="s">
+      <c r="G3" s="111" t="s">
         <v>582</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="H3" s="112" t="s">
         <v>583</v>
       </c>
-      <c r="H3" s="112" t="s">
-        <v>584</v>
-      </c>
       <c r="I3" s="112" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -11171,28 +11172,28 @@
         <v>553</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C4" s="111" t="s">
         <v>236</v>
       </c>
       <c r="D4" s="111" t="s">
+        <v>585</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F4" s="111" t="s">
         <v>586</v>
       </c>
-      <c r="E4" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F4" s="111" t="s">
+      <c r="G4" s="111" t="s">
         <v>587</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="H4" s="112" t="s">
         <v>588</v>
       </c>
-      <c r="H4" s="112" t="s">
+      <c r="I4" s="112" t="s">
         <v>589</v>
-      </c>
-      <c r="I4" s="112" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -11200,28 +11201,28 @@
         <v>553</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C5" s="111" t="s">
         <v>238</v>
       </c>
       <c r="D5" s="111" t="s">
+        <v>591</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" s="111" t="s">
         <v>592</v>
       </c>
-      <c r="E5" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F5" s="111" t="s">
+      <c r="G5" s="111" t="s">
         <v>593</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="H5" s="112" t="s">
         <v>594</v>
       </c>
-      <c r="H5" s="112" t="s">
+      <c r="I5" s="112" t="s">
         <v>595</v>
-      </c>
-      <c r="I5" s="112" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -11229,28 +11230,28 @@
         <v>553</v>
       </c>
       <c r="B6" s="111" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C6" s="111" t="s">
         <v>231</v>
       </c>
       <c r="D6" s="111" t="s">
+        <v>597</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F6" s="111" t="s">
         <v>598</v>
       </c>
-      <c r="E6" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F6" s="111" t="s">
+      <c r="G6" s="111" t="s">
         <v>599</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="H6" s="112" t="s">
         <v>600</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="I6" s="112" t="s">
         <v>601</v>
-      </c>
-      <c r="I6" s="112" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -11258,22 +11259,22 @@
         <v>555</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C7" s="111" t="s">
         <v>236</v>
       </c>
       <c r="D7" s="111" t="s">
+        <v>605</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F7" s="111" t="s">
         <v>606</v>
       </c>
-      <c r="E7" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F7" s="111" t="s">
+      <c r="G7" s="111" t="s">
         <v>607</v>
-      </c>
-      <c r="G7" s="111" t="s">
-        <v>608</v>
       </c>
       <c r="H7" s="113">
         <v>44502</v>
@@ -11287,28 +11288,28 @@
         <v>555</v>
       </c>
       <c r="B8" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="C8" s="111" t="s">
         <v>609</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="D8" s="111" t="s">
         <v>610</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="E8" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F8" s="111" t="s">
         <v>611</v>
       </c>
-      <c r="E8" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F8" s="111" t="s">
+      <c r="G8" s="111" t="s">
         <v>612</v>
       </c>
-      <c r="G8" s="111" t="s">
-        <v>613</v>
-      </c>
       <c r="H8" s="113" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I8" s="113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -11316,28 +11317,28 @@
         <v>555</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C9" s="114" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="114" t="s">
+        <v>964</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F9" s="111" t="s">
         <v>965</v>
       </c>
-      <c r="E9" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F9" s="111" t="s">
+      <c r="G9" s="111" t="s">
         <v>966</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="H9" s="115" t="s">
         <v>967</v>
       </c>
-      <c r="H9" s="115" t="s">
-        <v>968</v>
-      </c>
       <c r="I9" s="115" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.4" x14ac:dyDescent="0.35">
@@ -11345,28 +11346,28 @@
         <v>555</v>
       </c>
       <c r="B10" s="111" t="s">
+        <v>968</v>
+      </c>
+      <c r="C10" s="114" t="s">
         <v>969</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="D10" s="114" t="s">
         <v>970</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="E10" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>971</v>
       </c>
-      <c r="E10" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="111" t="s">
         <v>972</v>
       </c>
-      <c r="G10" s="111" t="s">
+      <c r="H10" s="115" t="s">
         <v>973</v>
       </c>
-      <c r="H10" s="115" t="s">
+      <c r="I10" s="115" t="s">
         <v>974</v>
-      </c>
-      <c r="I10" s="115" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -11374,51 +11375,51 @@
         <v>555</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C11" s="114" t="s">
         <v>231</v>
       </c>
       <c r="D11" s="114" t="s">
+        <v>976</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F11" s="111" t="s">
         <v>977</v>
       </c>
-      <c r="E11" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F11" s="111" t="s">
+      <c r="G11" s="111" t="s">
         <v>978</v>
       </c>
-      <c r="G11" s="111" t="s">
+      <c r="H11" s="115" t="s">
         <v>979</v>
       </c>
-      <c r="H11" s="115" t="s">
+      <c r="I11" s="115" t="s">
         <v>980</v>
-      </c>
-      <c r="I11" s="115" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="111" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C12" s="111" t="s">
         <v>239</v>
       </c>
       <c r="D12" s="111" t="s">
+        <v>614</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="F12" s="111" t="s">
         <v>615</v>
       </c>
-      <c r="E12" s="111" t="s">
-        <v>603</v>
-      </c>
-      <c r="F12" s="111" t="s">
+      <c r="G12" s="111" t="s">
         <v>616</v>
-      </c>
-      <c r="G12" s="111" t="s">
-        <v>617</v>
       </c>
       <c r="H12" s="113">
         <v>44545</v>
@@ -11429,25 +11430,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="111" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B13" s="111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C13" s="111" t="s">
         <v>238</v>
       </c>
       <c r="D13" s="111" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F13" s="111" t="s">
+        <v>618</v>
+      </c>
+      <c r="G13" s="111" t="s">
         <v>619</v>
-      </c>
-      <c r="G13" s="111" t="s">
-        <v>620</v>
       </c>
       <c r="H13" s="113">
         <v>44487</v>
@@ -11458,10 +11459,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="111" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C14" s="111" t="s">
         <v>294</v>
@@ -11470,13 +11471,13 @@
         <v>501</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F14" s="111" t="s">
+        <v>621</v>
+      </c>
+      <c r="G14" s="111" t="s">
         <v>622</v>
-      </c>
-      <c r="G14" s="111" t="s">
-        <v>623</v>
       </c>
       <c r="H14" s="113">
         <v>44365</v>
@@ -11487,25 +11488,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="111" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C15" s="111" t="s">
         <v>236</v>
       </c>
       <c r="D15" s="111" t="s">
+        <v>624</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F15" s="111" t="s">
         <v>625</v>
       </c>
-      <c r="E15" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F15" s="111" t="s">
+      <c r="G15" s="111" t="s">
         <v>626</v>
-      </c>
-      <c r="G15" s="111" t="s">
-        <v>627</v>
       </c>
       <c r="H15" s="113">
         <v>44335</v>
@@ -11516,10 +11517,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="111" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C16" s="111" t="s">
         <v>236</v>
@@ -11528,42 +11529,42 @@
         <v>232</v>
       </c>
       <c r="E16" s="111" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F16" s="111" t="s">
+        <v>628</v>
+      </c>
+      <c r="G16" s="111" t="s">
         <v>629</v>
-      </c>
-      <c r="G16" s="111" t="s">
-        <v>630</v>
       </c>
       <c r="H16" s="113">
         <v>44303</v>
       </c>
       <c r="I16" s="113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="111" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C17" s="111" t="s">
         <v>500</v>
       </c>
       <c r="D17" s="111" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="F17" s="111" t="s">
         <v>632</v>
       </c>
-      <c r="E17" s="111" t="s">
-        <v>603</v>
-      </c>
-      <c r="F17" s="111" t="s">
+      <c r="G17" s="111" t="s">
         <v>633</v>
-      </c>
-      <c r="G17" s="111" t="s">
-        <v>634</v>
       </c>
       <c r="H17" s="113">
         <v>44512</v>
@@ -11574,25 +11575,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="111" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B18" s="111" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C18" s="111" t="s">
         <v>238</v>
       </c>
       <c r="D18" s="111" t="s">
+        <v>591</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F18" s="111" t="s">
         <v>592</v>
       </c>
-      <c r="E18" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F18" s="111" t="s">
-        <v>593</v>
-      </c>
       <c r="G18" s="111" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H18" s="113">
         <v>44487</v>
@@ -11603,25 +11604,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="111" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B19" s="111" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C19" s="111" t="s">
         <v>549</v>
       </c>
       <c r="D19" s="111" t="s">
+        <v>637</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F19" s="111" t="s">
         <v>638</v>
       </c>
-      <c r="E19" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F19" s="111" t="s">
+      <c r="G19" s="111" t="s">
         <v>639</v>
-      </c>
-      <c r="G19" s="111" t="s">
-        <v>640</v>
       </c>
       <c r="H19" s="113">
         <v>44369</v>
@@ -11632,10 +11633,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="111" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C20" s="111" t="s">
         <v>236</v>
@@ -11644,42 +11645,42 @@
         <v>232</v>
       </c>
       <c r="E20" s="111" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F20" s="111" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G20" s="111" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H20" s="113">
         <v>44303</v>
       </c>
       <c r="I20" s="113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="111" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B21" s="111" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C21" s="111" t="s">
         <v>549</v>
       </c>
       <c r="D21" s="111" t="s">
+        <v>643</v>
+      </c>
+      <c r="E21" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="F21" s="111" t="s">
         <v>644</v>
       </c>
-      <c r="E21" s="111" t="s">
-        <v>603</v>
-      </c>
-      <c r="F21" s="111" t="s">
+      <c r="G21" s="111" t="s">
         <v>645</v>
-      </c>
-      <c r="G21" s="111" t="s">
-        <v>646</v>
       </c>
       <c r="H21" s="113">
         <v>44218</v>
@@ -11690,25 +11691,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="111" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C22" s="111" t="s">
         <v>531</v>
       </c>
       <c r="D22" s="111" t="s">
+        <v>647</v>
+      </c>
+      <c r="E22" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="F22" s="111" t="s">
         <v>648</v>
       </c>
-      <c r="E22" s="111" t="s">
-        <v>603</v>
-      </c>
-      <c r="F22" s="111" t="s">
+      <c r="G22" s="111" t="s">
         <v>649</v>
-      </c>
-      <c r="G22" s="111" t="s">
-        <v>650</v>
       </c>
       <c r="H22" s="113">
         <v>44539</v>
@@ -11719,39 +11720,39 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="111" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B23" s="111" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C23" s="111" t="s">
         <v>294</v>
       </c>
       <c r="D23" s="111" t="s">
+        <v>651</v>
+      </c>
+      <c r="E23" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="F23" s="111" t="s">
         <v>652</v>
       </c>
-      <c r="E23" s="111" t="s">
-        <v>603</v>
-      </c>
-      <c r="F23" s="111" t="s">
+      <c r="G23" s="111" t="s">
         <v>653</v>
-      </c>
-      <c r="G23" s="111" t="s">
-        <v>654</v>
       </c>
       <c r="H23" s="113">
         <v>44516</v>
       </c>
       <c r="I23" s="113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="111" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B24" s="111" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C24" s="111" t="s">
         <v>236</v>
@@ -11760,27 +11761,27 @@
         <v>232</v>
       </c>
       <c r="E24" s="111" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F24" s="111" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G24" s="111" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H24" s="113">
         <v>44503</v>
       </c>
       <c r="I24" s="113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="111" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B25" s="111" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C25" s="111" t="s">
         <v>294</v>
@@ -11789,42 +11790,42 @@
         <v>501</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F25" s="111" t="s">
+        <v>657</v>
+      </c>
+      <c r="G25" s="111" t="s">
         <v>658</v>
-      </c>
-      <c r="G25" s="111" t="s">
-        <v>659</v>
       </c>
       <c r="H25" s="113">
         <v>44398</v>
       </c>
       <c r="I25" s="113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="111" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B26" s="111" t="s">
+        <v>659</v>
+      </c>
+      <c r="C26" s="111" t="s">
         <v>660</v>
       </c>
-      <c r="C26" s="111" t="s">
+      <c r="D26" s="111" t="s">
         <v>661</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="E26" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="F26" s="111" t="s">
         <v>662</v>
       </c>
-      <c r="E26" s="111" t="s">
-        <v>603</v>
-      </c>
-      <c r="F26" s="111" t="s">
+      <c r="G26" s="111" t="s">
         <v>663</v>
-      </c>
-      <c r="G26" s="111" t="s">
-        <v>664</v>
       </c>
       <c r="H26" s="113">
         <v>44373</v>
@@ -11835,25 +11836,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="111" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B27" s="111" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C27" s="111" t="s">
         <v>538</v>
       </c>
       <c r="D27" s="111" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="F27" s="111" t="s">
         <v>666</v>
       </c>
-      <c r="E27" s="111" t="s">
-        <v>603</v>
-      </c>
-      <c r="F27" s="111" t="s">
+      <c r="G27" s="111" t="s">
         <v>667</v>
-      </c>
-      <c r="G27" s="111" t="s">
-        <v>668</v>
       </c>
       <c r="H27" s="113">
         <v>44491</v>
@@ -11864,10 +11865,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="111" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C28" s="111" t="s">
         <v>239</v>
@@ -11876,13 +11877,13 @@
         <v>545</v>
       </c>
       <c r="E28" s="111" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F28" s="111" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G28" s="111" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H28" s="113">
         <v>44458</v>
@@ -11893,54 +11894,54 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="111" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B29" s="111" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C29" s="111" t="s">
         <v>231</v>
       </c>
       <c r="D29" s="111" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E29" s="111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F29" s="111" t="s">
+        <v>671</v>
+      </c>
+      <c r="G29" s="111" t="s">
         <v>672</v>
-      </c>
-      <c r="G29" s="111" t="s">
-        <v>673</v>
       </c>
       <c r="H29" s="113">
         <v>44371</v>
       </c>
       <c r="I29" s="113" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="111" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B30" s="111" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C30" s="111" t="s">
         <v>238</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E30" s="111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F30" s="111" t="s">
+        <v>674</v>
+      </c>
+      <c r="G30" s="111" t="s">
         <v>675</v>
-      </c>
-      <c r="G30" s="111" t="s">
-        <v>676</v>
       </c>
       <c r="H30" s="113">
         <v>44358</v>
@@ -11951,10 +11952,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="111" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B31" s="111" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C31" s="114" t="s">
         <v>293</v>
@@ -11963,164 +11964,164 @@
         <v>506</v>
       </c>
       <c r="E31" s="111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F31" s="111" t="s">
+        <v>986</v>
+      </c>
+      <c r="G31" s="111" t="s">
         <v>987</v>
       </c>
-      <c r="G31" s="111" t="s">
+      <c r="H31" s="115" t="s">
         <v>988</v>
       </c>
-      <c r="H31" s="115" t="s">
+      <c r="I31" s="115" t="s">
         <v>989</v>
-      </c>
-      <c r="I31" s="115" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="111" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B32" s="111" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C32" s="111" t="s">
         <v>231</v>
       </c>
       <c r="D32" s="111" t="s">
+        <v>677</v>
+      </c>
+      <c r="E32" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F32" s="111" t="s">
         <v>678</v>
       </c>
-      <c r="E32" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F32" s="111" t="s">
+      <c r="G32" s="111" t="s">
         <v>679</v>
       </c>
-      <c r="G32" s="111" t="s">
+      <c r="H32" s="115" t="s">
         <v>680</v>
       </c>
-      <c r="H32" s="115" t="s">
+      <c r="I32" s="115" t="s">
         <v>681</v>
-      </c>
-      <c r="I32" s="115" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="111" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B33" s="111" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C33" s="111" t="s">
         <v>238</v>
       </c>
       <c r="D33" s="111" t="s">
+        <v>683</v>
+      </c>
+      <c r="E33" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F33" s="111" t="s">
         <v>684</v>
       </c>
-      <c r="E33" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F33" s="111" t="s">
+      <c r="G33" s="111" t="s">
+        <v>990</v>
+      </c>
+      <c r="H33" s="115" t="s">
         <v>685</v>
       </c>
-      <c r="G33" s="111" t="s">
-        <v>991</v>
-      </c>
-      <c r="H33" s="115" t="s">
-        <v>686</v>
-      </c>
       <c r="I33" s="115" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="111" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B34" s="111" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C34" s="114" t="s">
         <v>236</v>
       </c>
       <c r="D34" s="114" t="s">
+        <v>992</v>
+      </c>
+      <c r="E34" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="F34" s="111" t="s">
         <v>993</v>
       </c>
-      <c r="E34" s="111" t="s">
-        <v>603</v>
-      </c>
-      <c r="F34" s="111" t="s">
+      <c r="G34" s="111" t="s">
         <v>994</v>
       </c>
-      <c r="G34" s="111" t="s">
+      <c r="H34" s="115" t="s">
+        <v>988</v>
+      </c>
+      <c r="I34" s="115" t="s">
         <v>995</v>
-      </c>
-      <c r="H34" s="115" t="s">
-        <v>989</v>
-      </c>
-      <c r="I34" s="115" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="111" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B35" s="111" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C35" s="114" t="s">
         <v>236</v>
       </c>
       <c r="D35" s="114" t="s">
+        <v>997</v>
+      </c>
+      <c r="E35" s="111" t="s">
+        <v>574</v>
+      </c>
+      <c r="F35" s="111" t="s">
         <v>998</v>
       </c>
-      <c r="E35" s="111" t="s">
-        <v>575</v>
-      </c>
-      <c r="F35" s="111" t="s">
+      <c r="G35" s="111" t="s">
         <v>999</v>
       </c>
-      <c r="G35" s="111" t="s">
+      <c r="H35" s="115" t="s">
         <v>1000</v>
       </c>
-      <c r="H35" s="115" t="s">
+      <c r="I35" s="115" t="s">
         <v>1001</v>
-      </c>
-      <c r="I35" s="115" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="111" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B36" s="111" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C36" s="114" t="s">
         <v>531</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E36" s="111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F36" s="111" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G36" s="111" t="s">
         <v>1004</v>
       </c>
-      <c r="G36" s="111" t="s">
+      <c r="H36" s="115" t="s">
         <v>1005</v>
       </c>
-      <c r="H36" s="115" t="s">
+      <c r="I36" s="115" t="s">
         <v>1006</v>
-      </c>
-      <c r="I36" s="115" t="s">
-        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -12152,49 +12153,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>687</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>688</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>690</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>691</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="52" t="s">
         <v>693</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="51" t="s">
         <v>695</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>696</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>697</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="N1" s="53" t="s">
         <v>699</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="54" t="s">
         <v>700</v>
-      </c>
-      <c r="O1" s="54" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="25.2" x14ac:dyDescent="0.35">
@@ -12202,16 +12203,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D2" s="57" t="s">
+        <v>701</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>702</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>703</v>
       </c>
       <c r="F2" s="58" t="s">
         <v>2</v>
@@ -12226,14 +12227,14 @@
         <v>6</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M2" s="57"/>
       <c r="N2" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O2" s="61" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
@@ -12241,16 +12242,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F3" s="64" t="s">
         <v>2</v>
@@ -12265,11 +12266,11 @@
         <v>22</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M3" s="63"/>
       <c r="N3" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O3" s="61"/>
     </row>
@@ -12278,19 +12279,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="56" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>736</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>708</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>737</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="E4" s="58" t="s">
+        <v>702</v>
+      </c>
+      <c r="F4" s="58" t="s">
         <v>709</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>710</v>
       </c>
       <c r="G4" s="67">
         <v>44641</v>
@@ -12299,12 +12300,12 @@
       <c r="I4" s="59"/>
       <c r="J4" s="57"/>
       <c r="K4" s="56" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L4" s="56"/>
       <c r="M4" s="57"/>
       <c r="N4" s="65" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O4" s="61"/>
     </row>
@@ -12313,19 +12314,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>713</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="D5" s="57" t="s">
         <v>714</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="E5" s="64" t="s">
         <v>715</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="F5" s="58" t="s">
         <v>716</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>717</v>
       </c>
       <c r="G5" s="67">
         <v>44641</v>
@@ -12334,7 +12335,7 @@
       <c r="I5" s="59"/>
       <c r="J5" s="63"/>
       <c r="K5" s="62" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>62</v>
@@ -12348,16 +12349,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>2</v>
@@ -12372,12 +12373,12 @@
         <v>15</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M6" s="63"/>
       <c r="N6" s="60"/>
       <c r="O6" s="61" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
@@ -12385,19 +12386,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
+        <v>720</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>737</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>721</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>738</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>722</v>
-      </c>
       <c r="E7" s="58" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G7" s="67">
         <v>44641</v>
@@ -12406,12 +12407,12 @@
       <c r="I7" s="59"/>
       <c r="J7" s="57"/>
       <c r="K7" s="56" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L7" s="56"/>
       <c r="M7" s="57"/>
       <c r="N7" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O7" s="61"/>
     </row>
@@ -12420,19 +12421,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G8" s="67">
         <v>44641</v>
@@ -12441,16 +12442,16 @@
       <c r="I8" s="59"/>
       <c r="J8" s="63"/>
       <c r="K8" s="62" t="s">
+        <v>724</v>
+      </c>
+      <c r="L8" s="62" t="s">
         <v>725</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>726</v>
       </c>
       <c r="M8" s="62" t="s">
         <v>77</v>
       </c>
       <c r="N8" s="65" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O8" s="61"/>
     </row>
@@ -12459,19 +12460,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G9" s="67">
         <v>44641</v>
@@ -12480,14 +12481,14 @@
       <c r="I9" s="59"/>
       <c r="J9" s="63"/>
       <c r="K9" s="62" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L9" s="62" t="s">
         <v>55</v>
       </c>
       <c r="M9" s="63"/>
       <c r="N9" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O9" s="61"/>
     </row>
@@ -12496,19 +12497,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D10" s="122" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G10" s="67">
         <v>44641</v>
@@ -12517,10 +12518,10 @@
       <c r="I10" s="59"/>
       <c r="J10" s="63"/>
       <c r="K10" s="62" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M10" s="63" t="s">
         <v>56</v>
@@ -12533,19 +12534,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G11" s="67">
         <v>44641</v>
@@ -12554,14 +12555,14 @@
       <c r="I11" s="59"/>
       <c r="J11" s="63"/>
       <c r="K11" s="62" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M11" s="63"/>
       <c r="N11" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O11" s="61"/>
     </row>
@@ -12570,16 +12571,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C12" s="57" t="s">
+        <v>729</v>
+      </c>
+      <c r="D12" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>731</v>
-      </c>
       <c r="E12" s="58" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F12" s="58" t="s">
         <v>2</v>
@@ -12591,7 +12592,7 @@
       <c r="I12" s="59"/>
       <c r="J12" s="57"/>
       <c r="K12" s="56" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L12" s="56" t="s">
         <v>73</v>
@@ -12605,19 +12606,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G13" s="67">
         <v>44641</v>
@@ -12626,12 +12627,12 @@
       <c r="I13" s="59"/>
       <c r="J13" s="63"/>
       <c r="K13" s="62" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L13" s="62"/>
       <c r="M13" s="63"/>
       <c r="N13" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O13" s="61"/>
     </row>
@@ -12999,7 +13000,7 @@
         <v>42</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -13485,7 +13486,7 @@
         <v>2020</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -13511,7 +13512,7 @@
         <v>2020</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -13537,7 +13538,7 @@
         <v>2020</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -13563,7 +13564,7 @@
         <v>2020</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -13589,7 +13590,7 @@
         <v>2020</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -14285,7 +14286,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="68" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B57" t="s">
         <v>43</v>
@@ -14651,7 +14652,7 @@
         <v>2020</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -14677,7 +14678,7 @@
         <v>2020</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -14703,7 +14704,7 @@
         <v>2020</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -14714,7 +14715,7 @@
         <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D75" t="s">
         <v>548</v>
@@ -14729,7 +14730,7 @@
         <v>2020</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -14755,12 +14756,12 @@
         <v>2020</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="68" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B77" t="s">
         <v>43</v>
@@ -14781,7 +14782,7 @@
         <v>2020</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -14807,7 +14808,7 @@
         <v>2020</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -14833,7 +14834,7 @@
         <v>2020</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -14859,7 +14860,7 @@
         <v>2020</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -14885,7 +14886,7 @@
         <v>2020</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -14896,10 +14897,10 @@
         <v>43</v>
       </c>
       <c r="C82" t="s">
+        <v>764</v>
+      </c>
+      <c r="D82" t="s">
         <v>765</v>
-      </c>
-      <c r="D82" t="s">
-        <v>766</v>
       </c>
       <c r="E82" s="17">
         <v>12.5</v>
@@ -14942,7 +14943,7 @@
         <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D84" t="s">
         <v>214</v>
@@ -14965,7 +14966,7 @@
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D85" t="s">
         <v>214</v>
@@ -15011,10 +15012,10 @@
         <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D87" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E87" s="17">
         <v>78.3</v>
@@ -16326,7 +16327,7 @@
         <v>271</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D34" s="79">
         <v>72.7</v>
@@ -16347,13 +16348,13 @@
         <v>112</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D35" s="75">
         <v>421</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F35" s="75">
         <v>2019</v>
@@ -16431,7 +16432,7 @@
         <v>244</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D39" s="69">
         <v>87000</v>
@@ -16515,7 +16516,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D43" s="39">
         <v>6.36</v>
@@ -16620,7 +16621,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D48" s="76">
         <v>74258</v>
@@ -16788,13 +16789,13 @@
         <v>246</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D56" s="81">
         <v>49</v>
       </c>
       <c r="E56" s="75" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F56" s="75">
         <v>2020</v>
@@ -16914,7 +16915,7 @@
         <v>43</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D62">
         <v>72</v>
@@ -17100,7 +17101,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C71" s="75" t="s">
         <v>243</v>
@@ -17392,7 +17393,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>268</v>
@@ -17416,13 +17417,13 @@
         <v>270</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D86" s="78">
         <v>716</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F86" s="39">
         <v>2019</v>
@@ -17479,13 +17480,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D89" s="84">
         <v>2371</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F89" s="39">
         <v>2021</v>
@@ -17521,7 +17522,7 @@
         <v>246</v>
       </c>
       <c r="C91" s="75" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D91" s="83">
         <v>26</v>
@@ -18428,13 +18429,13 @@
         <v>291</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>292</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -18514,7 +18515,7 @@
         <v>295</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D5" s="116">
         <v>53</v>
@@ -18537,7 +18538,7 @@
         <v>532</v>
       </c>
       <c r="C6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D6">
         <v>53</v>
